--- a/evaluation/results/hybrid/autoencoder/LOF/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
       <c r="C2">
-        <v>0.1379310344827586</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="D2">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1403508771929824</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="F2">
-        <v>0.1418439716312057</v>
+        <v>0.2573529411764706</v>
       </c>
       <c r="G2">
-        <v>0.1426611796982167</v>
+        <v>0.6431095406360424</v>
       </c>
       <c r="H2">
-        <v>0.5480203317281969</v>
+        <v>0.6851257356875334</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="K2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9549718574108818</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9531835205992509</v>
+        <v>0.2434456928838951</v>
       </c>
       <c r="D2">
-        <v>0.9540768509840675</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1379310344827586</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1403508771929824</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
       <c r="C4">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
       <c r="D4">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
       <c r="E4">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5464514459468202</v>
+        <v>0.5324074074074074</v>
       </c>
       <c r="C5">
-        <v>0.5480203317281969</v>
+        <v>0.6217228464419475</v>
       </c>
       <c r="D5">
-        <v>0.5472138640885249</v>
+        <v>0.2566526977475118</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9142651971938223</v>
+        <v>0.9534071437986028</v>
       </c>
       <c r="C6">
-        <v>0.9128113879003559</v>
+        <v>0.2811387900355872</v>
       </c>
       <c r="D6">
-        <v>0.9135353433930526</v>
+        <v>0.3781229202746309</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
